--- a/testdata/demo1.xlsx
+++ b/testdata/demo1.xlsx
@@ -89,13 +89,13 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/testdata/demo1.xlsx
+++ b/testdata/demo1.xlsx
@@ -93,7 +93,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>

--- a/testdata/demo1.xlsx
+++ b/testdata/demo1.xlsx
@@ -49,35 +49,41 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
+  <borders count="1">
     <border>
       <left style=""/>
       <right style=""/>
@@ -85,22 +91,31 @@
       <bottom style=""/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="49">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="49">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="15"/>
+    <cellStyle name="Comma [0]" xfId="16"/>
+    <cellStyle name="Currency" xfId="17"/>
+    <cellStyle name="Currency [0]" xfId="18"/>
+    <cellStyle name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -436,11 +451,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.25" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="74.25" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="66.25" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.780612244898" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.7551020408163" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.5204081632653" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +476,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -472,7 +487,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -481,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s"/>
-      <c r="C4" s="2" t="s"/>
+      <c r="C4" s="4" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
